--- a/src/main/resources/downfiles/项目模板.xlsx
+++ b/src/main/resources/downfiles/项目模板.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghl/Downloads/知识产权/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghl/Desktop/Project/ship0928/src/main/resources/downfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="项目模版" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>项目编号</t>
     <rPh sb="0" eb="1">
@@ -36,7 +36,7 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
@@ -46,7 +46,7 @@
     <rPh sb="2" eb="3">
       <t>ming'c</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目负责人</t>
@@ -56,7 +56,7 @@
     <rPh sb="2" eb="3">
       <t>fu'ze'ren</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目渠道</t>
@@ -66,21 +66,21 @@
     <rPh sb="2" eb="3">
       <t>qu'dao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总经费</t>
     <rPh sb="0" eb="1">
       <t>zong'jing'f</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主管部门</t>
@@ -90,14 +90,14 @@
     <rPh sb="2" eb="3">
       <t>bu'men</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
       <t>xu'hao</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研究方向</t>
@@ -107,7 +107,7 @@
     <rPh sb="2" eb="3">
       <t>fang'x</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目承研单位</t>
@@ -120,7 +120,7 @@
     <rPh sb="4" eb="5">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参研单位</t>
@@ -130,7 +130,7 @@
     <rPh sb="2" eb="3">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研究内容</t>
@@ -140,7 +140,7 @@
     <rPh sb="2" eb="3">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研究周期</t>
@@ -150,7 +150,168 @@
     <rPh sb="2" eb="3">
       <t>zhou'qi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目密级</t>
+    <rPh sb="0" eb="1">
+      <t>xiang m</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项提前通知时间(天)</t>
+    <rPh sb="0" eb="1">
+      <t>li xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>li xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开题时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>kai ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开题提前通知时间(天)</t>
+    <rPh sb="0" eb="1">
+      <t>kai ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期检查时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>zhogn qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期检查提前通知时间(天)</t>
+    <rPh sb="0" eb="1">
+      <t>zhogn qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sh jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结题时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>jie ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结题提前通知时间(天)</t>
+    <rPh sb="0" eb="1">
+      <t>jie ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi j a</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>yan shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi j a</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收提前通知时间(天)</t>
+    <rPh sb="0" eb="1">
+      <t>yan shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -167,18 +328,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋_GB2312"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -197,32 +359,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,67 +651,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="5" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/downfiles/项目模板.xlsx
+++ b/src/main/resources/downfiles/项目模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>项目编号</t>
     <rPh sb="0" eb="1">
@@ -310,6 +310,30 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务编号</t>
+    <rPh sb="0" eb="1">
+      <t>cai wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首款</t>
+    <rPh sb="0" eb="1">
+      <t>shou kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾款</t>
+    <rPh sb="0" eb="1">
+      <t>wei kuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,10 +699,10 @@
     <col min="16" max="16" width="22.33203125" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -749,10 +773,19 @@
         <v>12</v>
       </c>
       <c r="X1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>

--- a/src/main/resources/downfiles/项目模板.xlsx
+++ b/src/main/resources/downfiles/项目模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghl/Desktop/Project/ship0928/src/main/resources/downfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghl/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>项目编号</t>
     <rPh sb="0" eb="1">
@@ -143,16 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究周期</t>
-    <rPh sb="0" eb="1">
-      <t>yan'jiu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhou'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目密级</t>
     <rPh sb="0" eb="1">
       <t>xiang m</t>
@@ -335,6 +325,114 @@
     <rPh sb="0" eb="1">
       <t>wei kuan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密</t>
+    <rPh sb="0" eb="1">
+      <t>mi mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <rPh sb="0" eb="1">
+      <t>mi mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <rPh sb="0" eb="1">
+      <t>mi mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖</t>
+    <rPh sb="0" eb="1">
+      <t>t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究周期开始时间(YYYY-MM-DD)</t>
+    <rPh sb="0" eb="1">
+      <t>yan jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究周期结束时间（YYYY-MM-DD）</t>
+    <rPh sb="0" eb="1">
+      <t>yan'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -398,6 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,10 +798,12 @@
     <col min="16" max="16" width="22.33203125" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47" customWidth="1"/>
+    <col min="24" max="24" width="40.83203125" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -716,37 +817,37 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>9</v>
@@ -770,25 +871,367 @@
         <v>4</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="X1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43709</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43739</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43770</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43789</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2">
+        <v>20000</v>
+      </c>
+      <c r="W2" s="1">
+        <v>43617</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43768</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2">
+        <v>2000</v>
+      </c>
+      <c r="AA2">
+        <v>8000</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43709</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43739</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43770</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43789</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3">
+        <v>20000</v>
+      </c>
+      <c r="W3" s="1">
+        <v>43617</v>
+      </c>
+      <c r="X3" s="1">
+        <v>43768</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3">
+        <v>2000</v>
+      </c>
+      <c r="AA3">
+        <v>8000</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43709</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43739</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43770</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43789</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4">
+        <v>20000</v>
+      </c>
+      <c r="W4" s="1">
+        <v>43617</v>
+      </c>
+      <c r="X4" s="1">
+        <v>43768</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4">
+        <v>2000</v>
+      </c>
+      <c r="AA4">
+        <v>8000</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43709</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43739</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43770</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>43789</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>43819</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5">
+        <v>20000</v>
+      </c>
+      <c r="W5" s="1">
+        <v>43617</v>
+      </c>
+      <c r="X5" s="1">
+        <v>43768</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5">
+        <v>2000</v>
+      </c>
+      <c r="AA5">
+        <v>8000</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
